--- a/pion_qT/expdata/15371.xlsx
+++ b/pion_qT/expdata/15371.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pion_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEEDD01-9455-144A-9020-E2A11F395387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E129C832-55BB-414B-8BF4-45D1FE2262E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8540" yWindow="700" windowWidth="27240" windowHeight="16440" xr2:uid="{9548B88C-C6EF-FF41-9C3C-0FC5F8818636}"/>
   </bookViews>
@@ -496,9 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273680EB-2139-E64A-8257-896B2F221734}">
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5518,131 +5520,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="R86" s="10"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="R87" s="10"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N88" s="9"/>
-      <c r="P88" s="9"/>
-      <c r="R88" s="10"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="R89" s="10"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="R90" s="10"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="R91" s="10"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="R92" s="10"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="R93" s="10"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="R94" s="10"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="R95" s="10"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="R96" s="10"/>
-    </row>
-    <row r="97" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="R97" s="10"/>
-    </row>
-    <row r="98" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="R98" s="10"/>
-    </row>
-    <row r="99" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="R99" s="10"/>
-    </row>
-    <row r="100" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="R100" s="10"/>
-    </row>
-    <row r="101" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N101" s="9"/>
-      <c r="P101" s="9"/>
-      <c r="R101" s="10"/>
-    </row>
-    <row r="102" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="R102" s="10"/>
-    </row>
-    <row r="103" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="R103" s="10"/>
-    </row>
-    <row r="104" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="R104" s="10"/>
-    </row>
-    <row r="105" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N105" s="9"/>
-      <c r="P105" s="9"/>
-      <c r="R105" s="10"/>
-    </row>
-    <row r="106" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N106" s="9"/>
-      <c r="P106" s="9"/>
-      <c r="R106" s="10"/>
-    </row>
-    <row r="107" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N107" s="9"/>
-      <c r="P107" s="9"/>
-      <c r="R107" s="10"/>
-    </row>
-    <row r="108" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="R108" s="10"/>
-    </row>
-    <row r="109" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="R109" s="10"/>
-    </row>
-    <row r="110" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N110" s="9"/>
-      <c r="P110" s="9"/>
-      <c r="R110" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
